--- a/(1분반)2013136110_전두영_마이크로프로세서_재료구매신청서.xlsx
+++ b/(1분반)2013136110_전두영_마이크로프로세서_재료구매신청서.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\arduino\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\전두영\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>과제명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -94,10 +94,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>아두이노 RGB LED 애노드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>아두이노 조이스틱 모듈 5핀</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -106,18 +102,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>아두이노 16x2 LCD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>40핀 커넥터 M-M 20cm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>40핀 커넥터 M-F 20cm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>아두이노 버튼 스위치 모듈(빨강)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -130,22 +114,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://storefarm.naver.com/mechasolution/products/380709863</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http://storefarm.naver.com/mechasolution/products/380694715</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://storefarm.naver.com/lenaenergy/products/438928811</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://storefarm.naver.com/lenaenergy/products/438930021</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http://storefarm.naver.com/lenaenergy/products/439104162</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -155,10 +127,6 @@
   </si>
   <si>
     <t>http://mcuboard.com/shop/goods/goods_view.php?goodsno=8772</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://storefarm.naver.com/lenaenergy/products/439727092</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -334,69 +302,14 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:colOff>485775</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>19049</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>2695575</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>1866900</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="그림 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="11430000" y="1276349"/>
-          <a:ext cx="2390775" cy="1847851"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>7</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>2590800</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>1868371</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -407,7 +320,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -444,124 +357,14 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>142876</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>2731412</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>1990726</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="그림 3"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="11229975" y="5191126"/>
-          <a:ext cx="2626637" cy="1847850"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>2740269</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>1981200</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="그림 4"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="11344275" y="7400925"/>
-          <a:ext cx="2521194" cy="1771650"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>2571750</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>2486025</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -572,7 +375,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -609,69 +412,14 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>2800740</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>2247900</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="그림 6"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="11249025" y="11963400"/>
-          <a:ext cx="2676915" cy="2143125"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>2891178</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>1924050</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -682,7 +430,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -720,13 +468,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>2600325</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>2051957</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -737,7 +485,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1037,10 +785,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1147,21 +895,21 @@
         <v>17</v>
       </c>
       <c r="C7" s="2">
-        <v>160</v>
+        <v>1440</v>
       </c>
       <c r="D7" s="2">
-        <v>70</v>
+        <v>4</v>
       </c>
       <c r="E7" s="2">
-        <f>160*70</f>
-        <v>11200</v>
+        <f>1440*4</f>
+        <v>5760</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" ht="149.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="204.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>2</v>
       </c>
@@ -1169,17 +917,17 @@
         <v>18</v>
       </c>
       <c r="C8" s="2">
-        <v>1440</v>
+        <v>990</v>
       </c>
       <c r="D8" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E8" s="2">
-        <f>1440*4</f>
-        <v>5760</v>
+        <f>990*8</f>
+        <v>7920</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="G8" s="2"/>
     </row>
@@ -1188,19 +936,19 @@
         <v>3</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C9" s="2">
-        <v>840</v>
+        <v>2500</v>
       </c>
       <c r="D9" s="2">
         <v>1</v>
       </c>
       <c r="E9" s="2">
-        <v>840</v>
+        <v>2500</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G9" s="2"/>
     </row>
@@ -1208,107 +956,55 @@
       <c r="A10" s="2">
         <v>4</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>22</v>
+      <c r="B10" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="C10" s="3">
-        <v>840</v>
+        <v>2500</v>
       </c>
       <c r="D10" s="3">
         <v>1</v>
       </c>
       <c r="E10" s="3">
-        <v>840</v>
+        <v>2500</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7" ht="201.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
-        <v>5</v>
-      </c>
+    <row r="11" spans="1:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C11" s="2">
-        <v>990</v>
-      </c>
-      <c r="D11" s="2">
+        <v>5000</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="2">
-        <f>990*8</f>
-        <v>7920</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>30</v>
-      </c>
+      <c r="E11">
+        <f>E7+E8+E9+E10+C11</f>
+        <v>23680</v>
+      </c>
+      <c r="F11" s="3"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7" ht="182.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
-        <v>6</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="2">
-        <v>2200</v>
-      </c>
-      <c r="D12" s="2">
-        <v>1</v>
-      </c>
-      <c r="E12" s="2">
-        <v>2200</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>33</v>
-      </c>
+    <row r="12" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="4"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7" ht="164.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
-        <v>7</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="2">
-        <v>2500</v>
-      </c>
-      <c r="D13" s="2">
-        <v>1</v>
-      </c>
-      <c r="E13" s="2">
-        <v>2500</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G13" s="2"/>
-    </row>
-    <row r="14" spans="1:7" ht="165.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
-        <v>8</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="3">
-        <v>2500</v>
-      </c>
-      <c r="D14" s="3">
-        <v>1</v>
-      </c>
-      <c r="E14" s="3">
-        <v>2500</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G14" s="2"/>
+    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2"/>
+    </row>
+    <row r="14" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
@@ -1317,24 +1013,6 @@
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="G16" s="2"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" s="2">
-        <v>7500</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17">
-        <f>E7+E8+E9+E10+E11+E12+E13+E14+7500</f>
-        <v>41260</v>
-      </c>
-      <c r="F17" s="3"/>
-      <c r="G17" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1346,17 +1024,13 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F13" r:id="rId1"/>
-    <hyperlink ref="F12" r:id="rId2"/>
-    <hyperlink ref="F14" r:id="rId3"/>
-    <hyperlink ref="F11" r:id="rId4"/>
-    <hyperlink ref="F9" r:id="rId5"/>
-    <hyperlink ref="F8" r:id="rId6"/>
-    <hyperlink ref="F7" r:id="rId7"/>
-    <hyperlink ref="F10" r:id="rId8"/>
+    <hyperlink ref="F9" r:id="rId1"/>
+    <hyperlink ref="F10" r:id="rId2"/>
+    <hyperlink ref="F8" r:id="rId3"/>
+    <hyperlink ref="F7" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
-  <drawing r:id="rId10"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <drawing r:id="rId6"/>
 </worksheet>
 </file>